--- a/data/trans_orig/P16A15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7DAC968-4519-4A06-95B4-8E2F4CAB6304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29B0A18F-8EC3-446C-A152-7536C52E9A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD80BEDC-33E1-4F76-AFF1-07CF4FAC95C2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F0B5E09A-65D3-4682-8E8E-1DBC549EE274}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="599">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1789 +77,1765 @@
     <t>3,94%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>5,16%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
   </si>
   <si>
     <t>87,93%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
+    <t>87,77%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
+    <t>20,65%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
+    <t>79,35%</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56739165-CA5F-4C9E-A5FC-37A50697F910}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF72203A-CB89-4732-AF4F-96BD20A4C7A6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3483,10 +3459,10 @@
         <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -3495,13 +3471,13 @@
         <v>68345</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -3510,13 +3486,13 @@
         <v>111356</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3507,13 @@
         <v>699766</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>682</v>
@@ -3546,13 +3522,13 @@
         <v>715166</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1373</v>
@@ -3561,13 +3537,13 @@
         <v>1414932</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3611,13 @@
         <v>190649</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>259</v>
@@ -3650,13 +3626,13 @@
         <v>266762</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>456</v>
@@ -3665,13 +3641,13 @@
         <v>457412</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,16 +3659,16 @@
         <v>3016</v>
       </c>
       <c r="D29" s="7">
-        <v>3084876</v>
+        <v>3084877</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>3038</v>
@@ -3701,28 +3677,28 @@
         <v>3112436</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>6054</v>
       </c>
       <c r="N29" s="7">
-        <v>6197310</v>
+        <v>6197311</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3710,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3764,7 +3740,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3778,7 +3754,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3802,7 +3778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D36565F-3393-42E1-A87E-31F4D8953144}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8796F9FE-D04F-44DE-87D8-096A138168C8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3819,7 +3795,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3924,39 +3900,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,39 +3945,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,39 +3990,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4039,13 @@
         <v>62594</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -4078,13 +4054,13 @@
         <v>77738</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -4093,13 +4069,13 @@
         <v>140333</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4090,13 @@
         <v>442933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>409</v>
@@ -4129,13 +4105,13 @@
         <v>444993</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>828</v>
@@ -4144,13 +4120,13 @@
         <v>887925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4194,13 @@
         <v>33614</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -4233,13 +4209,13 @@
         <v>41750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -4248,13 +4224,13 @@
         <v>75364</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4245,13 @@
         <v>289502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -4284,13 +4260,13 @@
         <v>299270</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>565</v>
@@ -4299,13 +4275,13 @@
         <v>588772</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4349,13 @@
         <v>65780</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
@@ -4388,13 +4364,13 @@
         <v>79463</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -4403,13 +4379,13 @@
         <v>145243</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4400,13 @@
         <v>601212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
@@ -4439,13 +4415,13 @@
         <v>589842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>1112</v>
@@ -4454,13 +4430,13 @@
         <v>1191053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4504,13 @@
         <v>29481</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4543,13 +4519,13 @@
         <v>41372</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -4558,13 +4534,13 @@
         <v>70853</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4555,13 @@
         <v>183137</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>173</v>
@@ -4594,13 +4570,13 @@
         <v>178219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>342</v>
@@ -4609,13 +4585,13 @@
         <v>361356</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4659,13 @@
         <v>36040</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4698,13 +4674,13 @@
         <v>37535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -4713,13 +4689,13 @@
         <v>73576</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4710,13 @@
         <v>237941</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
@@ -4749,13 +4725,13 @@
         <v>241605</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>458</v>
@@ -4764,13 +4740,13 @@
         <v>479545</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,10 +4814,10 @@
         <v>69663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>275</v>
@@ -4868,13 +4844,13 @@
         <v>145111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4865,13 @@
         <v>592313</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>570</v>
@@ -4904,13 +4880,13 @@
         <v>617324</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>1124</v>
@@ -4919,7 +4895,7 @@
         <v>1209637</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>287</v>
@@ -5029,7 +5005,7 @@
         <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5020,13 @@
         <v>722156</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>679</v>
@@ -5059,13 +5035,13 @@
         <v>739260</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>1345</v>
@@ -5074,13 +5050,13 @@
         <v>1461416</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5124,13 @@
         <v>351988</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>400</v>
@@ -5163,13 +5139,13 @@
         <v>435567</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>716</v>
@@ -5178,13 +5154,13 @@
         <v>787555</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5175,13 @@
         <v>3069194</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>2887</v>
@@ -5214,13 +5190,13 @@
         <v>3110513</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>5774</v>
@@ -5229,10 +5205,10 @@
         <v>6179706</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>322</v>
@@ -5291,7 +5267,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5315,7 +5291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1EAA17-F985-4ABE-9580-73C8CA045A50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCEE4E6-5950-4A64-B0E1-B16F95E8BDD8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5445,7 +5421,7 @@
         <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5454,13 +5430,13 @@
         <v>27535</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5469,13 +5445,13 @@
         <v>47889</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5466,13 @@
         <v>273407</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>251</v>
@@ -5505,13 +5481,13 @@
         <v>261168</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>497</v>
@@ -5520,13 +5496,13 @@
         <v>534575</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>28</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5570,13 @@
         <v>51571</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -5609,13 +5585,13 @@
         <v>67753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>108</v>
@@ -5624,13 +5600,13 @@
         <v>119325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5621,13 @@
         <v>451004</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -5660,13 +5636,13 @@
         <v>455331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>851</v>
@@ -5675,13 +5651,13 @@
         <v>906334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5725,13 @@
         <v>38415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -5764,13 +5740,13 @@
         <v>44872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -5779,13 +5755,13 @@
         <v>83288</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5776,13 @@
         <v>280150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>177</v>
       </c>
       <c r="H11" s="7">
         <v>293</v>
@@ -5815,13 +5791,13 @@
         <v>291437</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>586</v>
@@ -5830,13 +5806,13 @@
         <v>571586</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>370</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5880,13 @@
         <v>39058</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -5919,13 +5895,13 @@
         <v>50485</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -5934,13 +5910,13 @@
         <v>89543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5931,13 @@
         <v>330906</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>314</v>
@@ -5970,13 +5946,13 @@
         <v>336798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>627</v>
@@ -5985,13 +5961,13 @@
         <v>667704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6035,13 @@
         <v>25359</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -6074,13 +6050,13 @@
         <v>29565</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -6089,13 +6065,13 @@
         <v>54924</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6086,13 @@
         <v>185862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -6125,13 +6101,13 @@
         <v>189022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>380</v>
@@ -6140,13 +6116,13 @@
         <v>374884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6190,13 @@
         <v>22968</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -6229,13 +6205,13 @@
         <v>25158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -6244,13 +6220,13 @@
         <v>48126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6241,13 @@
         <v>240155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -6280,13 +6256,13 @@
         <v>247957</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>475</v>
@@ -6295,13 +6271,13 @@
         <v>488112</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6345,13 @@
         <v>52305</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -6384,13 +6360,13 @@
         <v>53729</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>416</v>
       </c>
       <c r="M22" s="7">
         <v>94</v>
@@ -6399,13 +6375,13 @@
         <v>106034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6396,13 @@
         <v>604253</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>27</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
         <v>600</v>
@@ -6435,13 +6411,13 @@
         <v>637565</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>351</v>
+        <v>423</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M23" s="7">
         <v>1132</v>
@@ -6450,13 +6426,13 @@
         <v>1241818</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6500,13 @@
         <v>68532</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>13</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -6539,13 +6515,13 @@
         <v>90853</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>258</v>
+        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -6554,13 +6530,13 @@
         <v>159385</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6551,13 @@
         <v>710051</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>446</v>
+        <v>22</v>
       </c>
       <c r="H26" s="7">
         <v>681</v>
@@ -6590,13 +6566,13 @@
         <v>735314</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>267</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>1365</v>
@@ -6605,13 +6581,13 @@
         <v>1445365</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6655,13 @@
         <v>318563</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>339</v>
@@ -6694,13 +6670,13 @@
         <v>389951</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>94</v>
+        <v>292</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="M28" s="7">
         <v>656</v>
@@ -6709,13 +6685,13 @@
         <v>708514</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6706,13 @@
         <v>3075787</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="H29" s="7">
         <v>2999</v>
@@ -6745,13 +6721,13 @@
         <v>3154591</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="M29" s="7">
         <v>5913</v>
@@ -6760,13 +6736,13 @@
         <v>6230378</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,7 +6798,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6846,7 +6822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526C2EA8-83AB-4CEF-B683-6F794736BA24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFEA981-5A1E-44D7-82E6-3A508EF8FE47}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6863,7 +6839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6970,13 +6946,13 @@
         <v>34812</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H4" s="7">
         <v>81</v>
@@ -6985,13 +6961,13 @@
         <v>37270</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M4" s="7">
         <v>131</v>
@@ -7000,13 +6976,13 @@
         <v>72082</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>463</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,13 +6997,13 @@
         <v>225486</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="H5" s="7">
         <v>457</v>
@@ -7036,13 +7012,13 @@
         <v>234133</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M5" s="7">
         <v>738</v>
@@ -7051,13 +7027,13 @@
         <v>459618</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>471</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7101,13 @@
         <v>51518</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>296</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -7140,13 +7116,13 @@
         <v>67869</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M7" s="7">
         <v>149</v>
@@ -7155,13 +7131,13 @@
         <v>119387</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>484</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7152,13 @@
         <v>466709</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>306</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>614</v>
@@ -7191,13 +7167,13 @@
         <v>485347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M8" s="7">
         <v>947</v>
@@ -7206,13 +7182,13 @@
         <v>952056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>490</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>347</v>
+        <v>484</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,13 +7256,13 @@
         <v>49845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -7295,13 +7271,13 @@
         <v>59034</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -7310,13 +7286,13 @@
         <v>108879</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7307,13 @@
         <v>272395</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H11" s="7">
         <v>431</v>
@@ -7346,13 +7322,13 @@
         <v>314250</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="M11" s="7">
         <v>723</v>
@@ -7361,13 +7337,13 @@
         <v>586645</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,13 +7411,13 @@
         <v>39675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -7450,13 +7426,13 @@
         <v>55157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -7465,13 +7441,13 @@
         <v>94832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7486,13 +7462,13 @@
         <v>282565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H14" s="7">
         <v>487</v>
@@ -7501,13 +7477,13 @@
         <v>373399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M14" s="7">
         <v>730</v>
@@ -7516,13 +7492,13 @@
         <v>655964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7566,13 @@
         <v>32120</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>522</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H16" s="7">
         <v>127</v>
@@ -7605,13 +7581,13 @@
         <v>50548</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M16" s="7">
         <v>182</v>
@@ -7620,13 +7596,13 @@
         <v>82668</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,13 +7617,13 @@
         <v>164628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>532</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -7656,13 +7632,13 @@
         <v>181355</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M17" s="7">
         <v>589</v>
@@ -7671,13 +7647,13 @@
         <v>345983</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7721,13 @@
         <v>59122</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -7760,13 +7736,13 @@
         <v>46504</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
@@ -7775,13 +7751,13 @@
         <v>105626</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7772,13 @@
         <v>218101</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -7811,13 +7787,13 @@
         <v>229118</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M20" s="7">
         <v>623</v>
@@ -7826,13 +7802,13 @@
         <v>447219</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>555</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>556</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7876,13 @@
         <v>69472</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -7915,13 +7891,13 @@
         <v>210999</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="M22" s="7">
         <v>239</v>
@@ -7930,13 +7906,13 @@
         <v>280471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>564</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7927,13 @@
         <v>558282</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H23" s="7">
         <v>802</v>
@@ -7966,13 +7942,13 @@
         <v>593204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M23" s="7">
         <v>1320</v>
@@ -7981,13 +7957,13 @@
         <v>1151486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>574</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,13 +8031,13 @@
         <v>84042</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H25" s="7">
         <v>151</v>
@@ -8070,13 +8046,13 @@
         <v>103296</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>395</v>
+        <v>575</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M25" s="7">
         <v>253</v>
@@ -8085,13 +8061,13 @@
         <v>187338</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>581</v>
+        <v>258</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8082,13 @@
         <v>775386</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H26" s="7">
         <v>909</v>
@@ -8121,13 +8097,13 @@
         <v>761735</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>403</v>
+        <v>584</v>
       </c>
       <c r="M26" s="7">
         <v>1569</v>
@@ -8136,13 +8112,13 @@
         <v>1537121</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>590</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8210,13 +8186,13 @@
         <v>420607</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>207</v>
+        <v>588</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H28" s="7">
         <v>944</v>
@@ -8225,13 +8201,13 @@
         <v>630677</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>593</v>
+        <v>505</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>594</v>
+        <v>543</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="M28" s="7">
         <v>1496</v>
@@ -8240,13 +8216,13 @@
         <v>1051284</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>597</v>
+        <v>489</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,13 +8237,13 @@
         <v>2963551</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>216</v>
+        <v>595</v>
       </c>
       <c r="H29" s="7">
         <v>4416</v>
@@ -8276,28 +8252,28 @@
         <v>3172541</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>601</v>
+        <v>513</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>603</v>
+        <v>552</v>
       </c>
       <c r="M29" s="7">
         <v>7239</v>
       </c>
       <c r="N29" s="7">
-        <v>6136091</v>
+        <v>6136092</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>606</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,7 +8315,7 @@
         <v>8735</v>
       </c>
       <c r="N30" s="7">
-        <v>7187375</v>
+        <v>7187376</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8353,7 +8329,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29B0A18F-8EC3-446C-A152-7536C52E9A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F275F5B9-7755-4C48-825D-A9C153ABBEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F0B5E09A-65D3-4682-8E8E-1DBC549EE274}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9DE4B8BF-8014-4409-9366-D12EF653AE17}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="587">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1729 +77,1693 @@
     <t>3,94%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>90,71%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
   </si>
   <si>
     <t>12,43%</t>
@@ -2247,7 +2211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF72203A-CB89-4732-AF4F-96BD20A4C7A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD9EB80-290C-4D8F-A17D-A75C7039CA5D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2872,7 +2836,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2851,13 @@
         <v>342309</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -2902,13 +2866,13 @@
         <v>352375</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>708</v>
@@ -2917,13 +2881,13 @@
         <v>694684</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,7 +2943,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2991,13 +2955,13 @@
         <v>14864</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3006,13 +2970,13 @@
         <v>12171</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -3021,13 +2985,13 @@
         <v>27035</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3006,13 @@
         <v>188444</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -3057,13 +3021,13 @@
         <v>195497</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -3072,13 +3036,13 @@
         <v>383941</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,7 +3098,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3146,13 +3110,13 @@
         <v>13268</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -3161,13 +3125,13 @@
         <v>31031</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3176,13 +3140,13 @@
         <v>44299</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3161,13 @@
         <v>257543</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -3212,13 +3176,13 @@
         <v>247113</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>493</v>
@@ -3227,13 +3191,13 @@
         <v>504656</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,7 +3253,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3301,13 +3265,13 @@
         <v>35190</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -3316,13 +3280,13 @@
         <v>49420</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -3331,13 +3295,13 @@
         <v>84609</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3316,13 @@
         <v>579837</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>573</v>
@@ -3367,13 +3331,13 @@
         <v>588799</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1134</v>
@@ -3382,13 +3346,13 @@
         <v>1168637</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,7 +3408,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3456,13 +3420,13 @@
         <v>43011</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -3471,13 +3435,13 @@
         <v>68345</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -3486,13 +3450,13 @@
         <v>111356</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3471,13 @@
         <v>699766</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>682</v>
@@ -3522,13 +3486,13 @@
         <v>715166</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>1373</v>
@@ -3537,13 +3501,13 @@
         <v>1414932</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3575,13 @@
         <v>190649</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>259</v>
@@ -3626,13 +3590,13 @@
         <v>266762</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="M28" s="7">
         <v>456</v>
@@ -3641,13 +3605,13 @@
         <v>457412</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,16 +3623,16 @@
         <v>3016</v>
       </c>
       <c r="D29" s="7">
-        <v>3084877</v>
+        <v>3084876</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>3038</v>
@@ -3677,13 +3641,13 @@
         <v>3112436</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>6054</v>
@@ -3692,13 +3656,13 @@
         <v>6197311</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,7 +3674,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3754,7 +3718,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3778,7 +3742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8796F9FE-D04F-44DE-87D8-096A138168C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB4D7AF-75B6-460C-A418-DF67C263E7F2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3795,7 +3759,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3900,39 +3864,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,39 +3909,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,39 +3954,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4003,13 @@
         <v>62594</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -4054,13 +4018,13 @@
         <v>77738</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -4069,13 +4033,13 @@
         <v>140333</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4054,13 @@
         <v>442933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>409</v>
@@ -4105,13 +4069,13 @@
         <v>444993</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="M8" s="7">
         <v>828</v>
@@ -4120,13 +4084,13 @@
         <v>887925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4158,13 @@
         <v>33614</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -4209,13 +4173,13 @@
         <v>41750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -4224,13 +4188,13 @@
         <v>75364</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4209,13 @@
         <v>289502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -4260,13 +4224,13 @@
         <v>299270</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>565</v>
@@ -4275,13 +4239,13 @@
         <v>588772</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4313,13 @@
         <v>65780</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
@@ -4364,13 +4328,13 @@
         <v>79463</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -4379,13 +4343,13 @@
         <v>145243</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4364,13 @@
         <v>601212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
@@ -4415,13 +4379,13 @@
         <v>589842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>1112</v>
@@ -4430,13 +4394,13 @@
         <v>1191053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,7 +4456,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4504,13 +4468,13 @@
         <v>29481</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4519,13 +4483,13 @@
         <v>41372</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -4534,13 +4498,13 @@
         <v>70853</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4519,13 @@
         <v>183137</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>173</v>
@@ -4570,13 +4534,13 @@
         <v>178219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>342</v>
@@ -4585,13 +4549,13 @@
         <v>361356</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,7 +4611,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4659,13 +4623,13 @@
         <v>36040</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4674,13 +4638,13 @@
         <v>37535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -4689,13 +4653,13 @@
         <v>73576</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4674,13 @@
         <v>237941</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
@@ -4725,13 +4689,13 @@
         <v>241605</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>458</v>
@@ -4740,13 +4704,13 @@
         <v>479545</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,7 +4766,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4814,13 +4778,13 @@
         <v>69663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -4829,13 +4793,13 @@
         <v>75449</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>128</v>
@@ -4844,13 +4808,13 @@
         <v>145111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4829,13 @@
         <v>592313</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>269</v>
       </c>
       <c r="H23" s="7">
         <v>570</v>
@@ -4880,13 +4844,13 @@
         <v>617324</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="M23" s="7">
         <v>1124</v>
@@ -4895,13 +4859,13 @@
         <v>1209637</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,7 +4921,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4969,13 +4933,13 @@
         <v>54816</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -4984,13 +4948,13 @@
         <v>82260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -4999,13 +4963,13 @@
         <v>137076</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +4984,13 @@
         <v>722156</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="H26" s="7">
         <v>679</v>
@@ -5035,13 +4999,13 @@
         <v>739260</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>1345</v>
@@ -5050,13 +5014,13 @@
         <v>1461416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5088,13 @@
         <v>351988</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="H28" s="7">
         <v>400</v>
@@ -5139,13 +5103,13 @@
         <v>435567</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="M28" s="7">
         <v>716</v>
@@ -5154,13 +5118,13 @@
         <v>787555</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5139,13 @@
         <v>3069194</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="H29" s="7">
         <v>2887</v>
@@ -5190,13 +5154,13 @@
         <v>3110513</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="M29" s="7">
         <v>5774</v>
@@ -5205,13 +5169,13 @@
         <v>6179706</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,7 +5231,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5291,7 +5255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCEE4E6-5950-4A64-B0E1-B16F95E8BDD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C597BA-B4DB-4D54-B43C-231D1E72C4FC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5308,7 +5272,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5415,13 +5379,13 @@
         <v>20354</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>164</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5430,13 +5394,13 @@
         <v>27535</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>32</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5445,13 +5409,13 @@
         <v>47889</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5430,13 @@
         <v>273407</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="H5" s="7">
         <v>251</v>
@@ -5481,13 +5445,13 @@
         <v>261168</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>497</v>
@@ -5496,13 +5460,13 @@
         <v>534575</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5534,13 @@
         <v>51571</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -5585,13 +5549,13 @@
         <v>67753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>108</v>
@@ -5600,13 +5564,13 @@
         <v>119325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5585,13 @@
         <v>451004</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -5636,13 +5600,13 @@
         <v>455331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>851</v>
@@ -5651,13 +5615,13 @@
         <v>906334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5689,13 @@
         <v>38415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -5740,13 +5704,13 @@
         <v>44872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -5755,13 +5719,13 @@
         <v>83288</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5740,13 @@
         <v>280150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>177</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>293</v>
@@ -5791,13 +5755,13 @@
         <v>291437</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>586</v>
@@ -5806,13 +5770,13 @@
         <v>571586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>368</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5844,13 @@
         <v>39058</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>248</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -5895,13 +5859,13 @@
         <v>50485</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -5910,13 +5874,13 @@
         <v>89543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>361</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>362</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5895,13 @@
         <v>330906</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>314</v>
@@ -5946,13 +5910,13 @@
         <v>336798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>627</v>
@@ -5961,13 +5925,13 @@
         <v>667704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,7 +5987,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6035,13 +5999,13 @@
         <v>25359</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -6050,13 +6014,13 @@
         <v>29565</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -6065,13 +6029,13 @@
         <v>54924</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6050,13 @@
         <v>185862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -6101,13 +6065,13 @@
         <v>189022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>380</v>
@@ -6116,13 +6080,13 @@
         <v>374884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,7 +6142,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6190,13 +6154,13 @@
         <v>22968</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -6205,13 +6169,13 @@
         <v>25158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -6220,13 +6184,13 @@
         <v>48126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>56</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6205,13 @@
         <v>240155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -6256,13 +6220,13 @@
         <v>247957</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
         <v>475</v>
@@ -6271,13 +6235,13 @@
         <v>488112</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>42</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,7 +6297,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6345,13 +6309,13 @@
         <v>52305</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>413</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -6360,13 +6324,13 @@
         <v>53729</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>414</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>415</v>
+        <v>90</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>94</v>
@@ -6375,13 +6339,13 @@
         <v>106034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6360,13 @@
         <v>604253</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>411</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>267</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H23" s="7">
         <v>600</v>
@@ -6411,13 +6375,13 @@
         <v>637565</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>422</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>423</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>424</v>
+        <v>99</v>
       </c>
       <c r="M23" s="7">
         <v>1132</v>
@@ -6426,13 +6390,13 @@
         <v>1241818</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,7 +6452,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6500,13 +6464,13 @@
         <v>68532</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>13</v>
+        <v>417</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -6515,13 +6479,13 @@
         <v>90853</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -6530,13 +6494,13 @@
         <v>159385</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6515,13 @@
         <v>710051</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>22</v>
+        <v>427</v>
       </c>
       <c r="H26" s="7">
         <v>681</v>
@@ -6566,13 +6530,13 @@
         <v>735314</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="M26" s="7">
         <v>1365</v>
@@ -6581,13 +6545,13 @@
         <v>1445365</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6619,13 @@
         <v>318563</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>446</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>339</v>
@@ -6670,13 +6634,13 @@
         <v>389951</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>292</v>
+        <v>436</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="M28" s="7">
         <v>656</v>
@@ -6685,13 +6649,13 @@
         <v>708514</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6670,13 @@
         <v>3075787</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="H29" s="7">
         <v>2999</v>
@@ -6721,13 +6685,13 @@
         <v>3154591</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="M29" s="7">
         <v>5913</v>
@@ -6736,13 +6700,13 @@
         <v>6230378</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,7 +6762,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6822,7 +6786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFEA981-5A1E-44D7-82E6-3A508EF8FE47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7CFD37-50BC-4626-B1FB-CBD2408C8749}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6839,7 +6803,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6946,13 +6910,13 @@
         <v>34812</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H4" s="7">
         <v>81</v>
@@ -6961,13 +6925,13 @@
         <v>37270</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="M4" s="7">
         <v>131</v>
@@ -6976,13 +6940,13 @@
         <v>72082</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +6961,13 @@
         <v>225486</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H5" s="7">
         <v>457</v>
@@ -7012,13 +6976,13 @@
         <v>234133</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="M5" s="7">
         <v>738</v>
@@ -7027,13 +6991,13 @@
         <v>459618</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7065,13 @@
         <v>51518</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -7116,13 +7080,13 @@
         <v>67869</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M7" s="7">
         <v>149</v>
@@ -7131,13 +7095,13 @@
         <v>119387</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>470</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>471</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7116,13 @@
         <v>466709</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H8" s="7">
         <v>614</v>
@@ -7167,13 +7131,13 @@
         <v>485347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M8" s="7">
         <v>947</v>
@@ -7182,13 +7146,13 @@
         <v>952056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>478</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7220,13 @@
         <v>49845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -7271,13 +7235,13 @@
         <v>59034</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -7286,13 +7250,13 @@
         <v>108879</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7271,13 @@
         <v>272395</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="H11" s="7">
         <v>431</v>
@@ -7322,13 +7286,13 @@
         <v>314250</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M11" s="7">
         <v>723</v>
@@ -7337,13 +7301,13 @@
         <v>586645</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,13 +7375,13 @@
         <v>39675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>504</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -7426,13 +7390,13 @@
         <v>55157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -7441,13 +7405,13 @@
         <v>94832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7426,13 @@
         <v>282565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>514</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>487</v>
@@ -7477,13 +7441,13 @@
         <v>373399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M14" s="7">
         <v>730</v>
@@ -7492,13 +7456,13 @@
         <v>655964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,7 +7518,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7566,13 +7530,13 @@
         <v>32120</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H16" s="7">
         <v>127</v>
@@ -7581,13 +7545,13 @@
         <v>50548</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="M16" s="7">
         <v>182</v>
@@ -7596,13 +7560,13 @@
         <v>82668</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,13 +7581,13 @@
         <v>164628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -7632,13 +7596,13 @@
         <v>181355</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M17" s="7">
         <v>589</v>
@@ -7647,13 +7611,13 @@
         <v>345983</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7709,7 +7673,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7721,13 +7685,13 @@
         <v>59122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -7736,13 +7700,13 @@
         <v>46504</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>542</v>
+        <v>373</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
@@ -7751,13 +7715,13 @@
         <v>105626</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7736,13 @@
         <v>218101</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -7787,13 +7751,13 @@
         <v>229118</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>550</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="M20" s="7">
         <v>623</v>
@@ -7802,13 +7766,13 @@
         <v>447219</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,7 +7828,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7876,13 +7840,13 @@
         <v>69472</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>557</v>
+        <v>228</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -7891,13 +7855,13 @@
         <v>210999</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="M22" s="7">
         <v>239</v>
@@ -7906,13 +7870,13 @@
         <v>280471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,13 +7891,13 @@
         <v>558282</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>564</v>
+        <v>237</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="H23" s="7">
         <v>802</v>
@@ -7942,13 +7906,13 @@
         <v>593204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="M23" s="7">
         <v>1320</v>
@@ -7957,13 +7921,13 @@
         <v>1151486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8019,7 +7983,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8031,13 +7995,13 @@
         <v>84042</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H25" s="7">
         <v>151</v>
@@ -8046,13 +8010,13 @@
         <v>103296</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>574</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>575</v>
+        <v>37</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="M25" s="7">
         <v>253</v>
@@ -8061,13 +8025,13 @@
         <v>187338</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>258</v>
+        <v>566</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,13 +8046,13 @@
         <v>775386</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="H26" s="7">
         <v>909</v>
@@ -8097,13 +8061,13 @@
         <v>761735</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>582</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>584</v>
+        <v>45</v>
       </c>
       <c r="M26" s="7">
         <v>1569</v>
@@ -8112,13 +8076,13 @@
         <v>1537121</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>268</v>
+        <v>574</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8186,13 +8150,13 @@
         <v>420607</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="H28" s="7">
         <v>944</v>
@@ -8201,13 +8165,13 @@
         <v>630677</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M28" s="7">
         <v>1496</v>
@@ -8216,13 +8180,13 @@
         <v>1051284</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,13 +8201,13 @@
         <v>2963551</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="H29" s="7">
         <v>4416</v>
@@ -8252,13 +8216,13 @@
         <v>3172541</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="M29" s="7">
         <v>7239</v>
@@ -8267,13 +8231,13 @@
         <v>6136092</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8329,7 +8293,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F275F5B9-7755-4C48-825D-A9C153ABBEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{442818AA-DB18-4992-8F24-5D7E97DAE438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9DE4B8BF-8014-4409-9366-D12EF653AE17}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05D807CD-770E-4657-B744-547C0CE2FFD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,1735 +71,1795 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>2,28%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>11,59%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>88,41%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>13,8%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>86,2%</t>
   </si>
   <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>79,35%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD9EB80-290C-4D8F-A17D-A75C7039CA5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C18916-E029-495C-B5C1-BE419E0D97FF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2836,7 +2896,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2911,13 @@
         <v>342309</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -2866,13 +2926,13 @@
         <v>352375</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>708</v>
@@ -2881,13 +2941,13 @@
         <v>694684</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,7 +3003,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2955,13 +3015,13 @@
         <v>14864</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -2970,13 +3030,13 @@
         <v>12171</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -2985,13 +3045,13 @@
         <v>27035</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3066,13 @@
         <v>188444</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -3021,13 +3081,13 @@
         <v>195497</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -3036,13 +3096,13 @@
         <v>383941</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,7 +3158,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3110,13 +3170,13 @@
         <v>13268</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -3125,13 +3185,13 @@
         <v>31031</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3140,13 +3200,13 @@
         <v>44299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3221,13 @@
         <v>257543</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -3176,13 +3236,13 @@
         <v>247113</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>493</v>
@@ -3191,13 +3251,13 @@
         <v>504656</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3313,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3265,13 +3325,13 @@
         <v>35190</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -3280,13 +3340,13 @@
         <v>49420</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -3295,13 +3355,13 @@
         <v>84609</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3376,13 @@
         <v>579837</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>573</v>
@@ -3331,13 +3391,13 @@
         <v>588799</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1134</v>
@@ -3346,13 +3406,13 @@
         <v>1168637</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,7 +3468,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3420,13 +3480,13 @@
         <v>43011</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -3435,13 +3495,13 @@
         <v>68345</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -3450,13 +3510,13 @@
         <v>111356</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3531,13 @@
         <v>699766</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="H26" s="7">
         <v>682</v>
@@ -3486,13 +3546,13 @@
         <v>715166</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1373</v>
@@ -3501,13 +3561,13 @@
         <v>1414932</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3635,13 @@
         <v>190649</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>259</v>
@@ -3590,13 +3650,13 @@
         <v>266762</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>456</v>
@@ -3605,13 +3665,13 @@
         <v>457412</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3686,13 @@
         <v>3084876</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>3038</v>
@@ -3641,28 +3701,28 @@
         <v>3112436</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>6054</v>
       </c>
       <c r="N29" s="7">
-        <v>6197311</v>
+        <v>6197310</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3764,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3718,7 +3778,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3742,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB4D7AF-75B6-460C-A418-DF67C263E7F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC124906-2F11-4B10-9CE9-E8F848C54B51}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3759,7 +3819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3864,39 +3924,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,39 +3969,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,39 +4014,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +4063,13 @@
         <v>62594</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -4018,13 +4078,13 @@
         <v>77738</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -4033,13 +4093,13 @@
         <v>140333</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4114,13 @@
         <v>442933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>409</v>
@@ -4069,13 +4129,13 @@
         <v>444993</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>828</v>
@@ -4084,13 +4144,13 @@
         <v>887925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4218,13 @@
         <v>33614</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -4173,13 +4233,13 @@
         <v>41750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -4188,13 +4248,13 @@
         <v>75364</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4269,13 @@
         <v>289502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -4224,13 +4284,13 @@
         <v>299270</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>565</v>
@@ -4239,13 +4299,13 @@
         <v>588772</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4373,13 @@
         <v>65780</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
@@ -4328,13 +4388,13 @@
         <v>79463</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -4343,13 +4403,13 @@
         <v>145243</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4424,13 @@
         <v>601212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>545</v>
@@ -4379,13 +4439,13 @@
         <v>589842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>1112</v>
@@ -4394,13 +4454,13 @@
         <v>1191053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,7 +4516,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4468,13 +4528,13 @@
         <v>29481</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4483,13 +4543,13 @@
         <v>41372</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -4498,13 +4558,13 @@
         <v>70853</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4579,13 @@
         <v>183137</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>173</v>
@@ -4534,13 +4594,13 @@
         <v>178219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>342</v>
@@ -4549,13 +4609,13 @@
         <v>361356</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,7 +4671,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4623,13 +4683,13 @@
         <v>36040</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4638,13 +4698,13 @@
         <v>37535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -4653,13 +4713,13 @@
         <v>73576</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4734,13 @@
         <v>237941</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
@@ -4689,13 +4749,13 @@
         <v>241605</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>458</v>
@@ -4704,13 +4764,13 @@
         <v>479545</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,7 +4826,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4778,13 +4838,13 @@
         <v>69663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -4793,13 +4853,13 @@
         <v>75449</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>128</v>
@@ -4808,13 +4868,13 @@
         <v>145111</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4889,13 @@
         <v>592313</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>570</v>
@@ -4844,13 +4904,13 @@
         <v>617324</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>1124</v>
@@ -4859,13 +4919,13 @@
         <v>1209637</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>273</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>42</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,7 +4981,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4933,13 +4993,13 @@
         <v>54816</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -4948,13 +5008,13 @@
         <v>82260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -4963,13 +5023,13 @@
         <v>137076</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +5044,13 @@
         <v>722156</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>679</v>
@@ -4999,13 +5059,13 @@
         <v>739260</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>1345</v>
@@ -5014,13 +5074,13 @@
         <v>1461416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5148,13 @@
         <v>351988</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>400</v>
@@ -5103,13 +5163,13 @@
         <v>435567</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>716</v>
@@ -5118,13 +5178,13 @@
         <v>787555</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5199,13 @@
         <v>3069194</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>2887</v>
@@ -5154,13 +5214,13 @@
         <v>3110513</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M29" s="7">
         <v>5774</v>
@@ -5169,13 +5229,13 @@
         <v>6179706</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>25</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,7 +5291,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5255,7 +5315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C597BA-B4DB-4D54-B43C-231D1E72C4FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40374237-2EA4-42A1-B3FE-31A95E1581AC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5272,7 +5332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5379,13 +5439,13 @@
         <v>20354</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5394,13 +5454,13 @@
         <v>27535</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5409,13 +5469,13 @@
         <v>47889</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>314</v>
+        <v>19</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5490,13 @@
         <v>273407</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>251</v>
@@ -5445,13 +5505,13 @@
         <v>261168</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>497</v>
@@ -5460,13 +5520,13 @@
         <v>534575</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5594,13 @@
         <v>51571</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -5549,13 +5609,13 @@
         <v>67753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>108</v>
@@ -5564,13 +5624,13 @@
         <v>119325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5645,13 @@
         <v>451004</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>348</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -5600,13 +5660,13 @@
         <v>455331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="M8" s="7">
         <v>851</v>
@@ -5615,13 +5675,13 @@
         <v>906334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5749,13 @@
         <v>38415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -5704,13 +5764,13 @@
         <v>44872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -5719,13 +5779,13 @@
         <v>83288</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5800,13 @@
         <v>280150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>293</v>
@@ -5755,13 +5815,13 @@
         <v>291437</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>586</v>
@@ -5770,13 +5830,13 @@
         <v>571586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5904,13 @@
         <v>39058</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -5859,13 +5919,13 @@
         <v>50485</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -5874,13 +5934,13 @@
         <v>89543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5955,13 @@
         <v>330906</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>314</v>
@@ -5910,13 +5970,13 @@
         <v>336798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>627</v>
@@ -5925,13 +5985,13 @@
         <v>667704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,7 +6047,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5999,13 +6059,13 @@
         <v>25359</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -6014,13 +6074,13 @@
         <v>29565</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -6029,13 +6089,13 @@
         <v>54924</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6110,13 @@
         <v>185862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>380</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -6065,13 +6125,13 @@
         <v>189022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>380</v>
@@ -6080,13 +6140,13 @@
         <v>374884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,7 +6202,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6154,13 +6214,13 @@
         <v>22968</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -6169,13 +6229,13 @@
         <v>25158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -6184,13 +6244,13 @@
         <v>48126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6265,13 @@
         <v>240155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -6220,13 +6280,13 @@
         <v>247957</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>475</v>
@@ -6235,13 +6295,13 @@
         <v>488112</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,7 +6357,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6309,13 +6369,13 @@
         <v>52305</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>423</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -6324,13 +6384,13 @@
         <v>53729</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>424</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>90</v>
+        <v>425</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
         <v>94</v>
@@ -6339,13 +6399,13 @@
         <v>106034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6420,13 @@
         <v>604253</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>267</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>412</v>
+        <v>27</v>
       </c>
       <c r="H23" s="7">
         <v>600</v>
@@ -6375,13 +6435,13 @@
         <v>637565</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>431</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>432</v>
       </c>
       <c r="M23" s="7">
         <v>1132</v>
@@ -6390,13 +6450,13 @@
         <v>1241818</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,7 +6512,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6464,13 +6524,13 @@
         <v>68532</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -6479,13 +6539,13 @@
         <v>90853</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>421</v>
+        <v>258</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -6494,13 +6554,13 @@
         <v>159385</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,13 +6575,13 @@
         <v>710051</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="H26" s="7">
         <v>681</v>
@@ -6530,13 +6590,13 @@
         <v>735314</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>429</v>
+        <v>267</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>1365</v>
@@ -6545,13 +6605,13 @@
         <v>1445365</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,13 +6679,13 @@
         <v>318563</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>339</v>
@@ -6634,13 +6694,13 @@
         <v>389951</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>436</v>
+        <v>94</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>656</v>
@@ -6649,13 +6709,13 @@
         <v>708514</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,13 +6730,13 @@
         <v>3075787</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>458</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="H29" s="7">
         <v>2999</v>
@@ -6685,13 +6745,13 @@
         <v>3154591</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>444</v>
+        <v>102</v>
       </c>
       <c r="M29" s="7">
         <v>5913</v>
@@ -6700,13 +6760,13 @@
         <v>6230378</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,7 +6822,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6786,7 +6846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7CFD37-50BC-4626-B1FB-CBD2408C8749}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07362931-102A-4CD7-8006-93A2B120E52E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6803,7 +6863,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6910,13 +6970,13 @@
         <v>34812</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="H4" s="7">
         <v>81</v>
@@ -6925,13 +6985,13 @@
         <v>37270</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="M4" s="7">
         <v>131</v>
@@ -6940,13 +7000,13 @@
         <v>72082</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>454</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,13 +7021,13 @@
         <v>225486</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="H5" s="7">
         <v>457</v>
@@ -6976,13 +7036,13 @@
         <v>234133</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="M5" s="7">
         <v>738</v>
@@ -6991,13 +7051,13 @@
         <v>459618</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>462</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,13 +7125,13 @@
         <v>51518</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>87</v>
+        <v>296</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -7080,13 +7140,13 @@
         <v>67869</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="M7" s="7">
         <v>149</v>
@@ -7095,13 +7155,13 @@
         <v>119387</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>471</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>472</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,13 +7176,13 @@
         <v>466709</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
         <v>614</v>
@@ -7131,13 +7191,13 @@
         <v>485347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="M8" s="7">
         <v>947</v>
@@ -7146,13 +7206,13 @@
         <v>952056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>479</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>480</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,13 +7280,13 @@
         <v>49845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -7235,13 +7295,13 @@
         <v>59034</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -7250,13 +7310,13 @@
         <v>108879</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,13 +7331,13 @@
         <v>272395</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="H11" s="7">
         <v>431</v>
@@ -7286,13 +7346,13 @@
         <v>314250</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="M11" s="7">
         <v>723</v>
@@ -7301,13 +7361,13 @@
         <v>586645</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,13 +7435,13 @@
         <v>39675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>510</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -7390,13 +7450,13 @@
         <v>55157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -7405,13 +7465,13 @@
         <v>94832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,13 +7486,13 @@
         <v>282565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>518</v>
       </c>
       <c r="H14" s="7">
         <v>487</v>
@@ -7441,13 +7501,13 @@
         <v>373399</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>730</v>
@@ -7456,13 +7516,13 @@
         <v>655964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,7 +7578,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7530,13 +7590,13 @@
         <v>32120</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>516</v>
+        <v>183</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="H16" s="7">
         <v>127</v>
@@ -7545,13 +7605,13 @@
         <v>50548</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="M16" s="7">
         <v>182</v>
@@ -7560,13 +7620,13 @@
         <v>82668</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7581,13 +7641,13 @@
         <v>164628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>526</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -7596,13 +7656,13 @@
         <v>181355</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="M17" s="7">
         <v>589</v>
@@ -7611,13 +7671,13 @@
         <v>345983</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,7 +7733,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7685,13 +7745,13 @@
         <v>59122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -7700,13 +7760,13 @@
         <v>46504</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>373</v>
+        <v>544</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>536</v>
+        <v>467</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
@@ -7715,13 +7775,13 @@
         <v>105626</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>500</v>
+        <v>547</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,13 +7796,13 @@
         <v>218101</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -7751,13 +7811,13 @@
         <v>229118</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>552</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>544</v>
+        <v>474</v>
       </c>
       <c r="M20" s="7">
         <v>623</v>
@@ -7766,13 +7826,13 @@
         <v>447219</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7828,7 +7888,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7840,13 +7900,13 @@
         <v>69472</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>228</v>
+        <v>559</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -7855,13 +7915,13 @@
         <v>210999</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="M22" s="7">
         <v>239</v>
@@ -7870,13 +7930,13 @@
         <v>280471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,13 +7951,13 @@
         <v>558282</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>237</v>
+        <v>567</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="H23" s="7">
         <v>802</v>
@@ -7906,13 +7966,13 @@
         <v>593204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="M23" s="7">
         <v>1320</v>
@@ -7921,13 +7981,13 @@
         <v>1151486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7983,7 +8043,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7995,13 +8055,13 @@
         <v>84042</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="H25" s="7">
         <v>151</v>
@@ -8010,13 +8070,13 @@
         <v>103296</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>89</v>
+        <v>578</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>37</v>
+        <v>395</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="M25" s="7">
         <v>253</v>
@@ -8025,13 +8085,13 @@
         <v>187338</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,13 +8106,13 @@
         <v>775386</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="H26" s="7">
         <v>909</v>
@@ -8061,13 +8121,13 @@
         <v>761735</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>586</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="M26" s="7">
         <v>1569</v>
@@ -8076,13 +8136,13 @@
         <v>1537121</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,13 +8210,13 @@
         <v>420607</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>576</v>
+        <v>207</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="H28" s="7">
         <v>944</v>
@@ -8165,13 +8225,13 @@
         <v>630677</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>500</v>
+        <v>593</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="M28" s="7">
         <v>1496</v>
@@ -8180,13 +8240,13 @@
         <v>1051284</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>485</v>
+        <v>597</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8201,13 +8261,13 @@
         <v>2963551</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>583</v>
+        <v>216</v>
       </c>
       <c r="H29" s="7">
         <v>4416</v>
@@ -8216,28 +8276,28 @@
         <v>3172541</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>508</v>
+        <v>601</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
       <c r="M29" s="7">
         <v>7239</v>
       </c>
       <c r="N29" s="7">
-        <v>6136092</v>
+        <v>6136091</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>495</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,7 +8339,7 @@
         <v>8735</v>
       </c>
       <c r="N30" s="7">
-        <v>7187376</v>
+        <v>7187375</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8293,7 +8353,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{442818AA-DB18-4992-8F24-5D7E97DAE438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A943865A-EEB5-4F22-9517-68392F30EFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05D807CD-770E-4657-B744-547C0CE2FFD9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A86C549B-6B16-4A56-A5CF-649D8E309B33}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="620">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -587,7 +587,46 @@
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>12,38%</t>
@@ -698,58 +737,58 @@
     <t>90,99%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>13,87%</t>
@@ -1436,430 +1475,430 @@
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
   </si>
   <si>
     <t>22,03%</t>
   </si>
   <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>77,97%</t>
   </si>
   <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C18916-E029-495C-B5C1-BE419E0D97FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D955200-CC82-44F1-A7C3-2762E77D975F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3698,7 +3737,7 @@
         <v>3038</v>
       </c>
       <c r="I29" s="7">
-        <v>3112436</v>
+        <v>3112435</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -3749,7 +3788,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3802,7 +3841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC124906-2F11-4B10-9CE9-E8F848C54B51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0EED9C-0A36-448B-B937-29D201545A72}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3920,43 +3959,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>26514</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I4" s="7">
+        <v>27474</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="N4" s="7">
+        <v>53989</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,43 +4010,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>257</v>
+      </c>
+      <c r="D5" s="7">
+        <v>266495</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>226</v>
+      </c>
+      <c r="I5" s="7">
+        <v>253856</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>483</v>
+      </c>
+      <c r="N5" s="7">
+        <v>520351</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,43 +4061,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>280</v>
+      </c>
+      <c r="D6" s="7">
+        <v>293009</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="I6" s="7">
+        <v>281330</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>531</v>
+      </c>
+      <c r="N6" s="7">
+        <v>574340</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4120,13 @@
         <v>62594</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -4078,13 +4135,13 @@
         <v>77738</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -4093,13 +4150,13 @@
         <v>140333</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4171,13 @@
         <v>442933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>409</v>
@@ -4129,13 +4186,13 @@
         <v>444993</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>828</v>
@@ -4144,13 +4201,13 @@
         <v>887925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4275,13 @@
         <v>33614</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -4233,13 +4290,13 @@
         <v>41750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -4248,13 +4305,13 @@
         <v>75364</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4326,13 @@
         <v>289502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -4284,13 +4341,13 @@
         <v>299270</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>565</v>
@@ -4299,13 +4356,13 @@
         <v>588772</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,49 +4424,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>65780</v>
+        <v>39266</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>79463</v>
+        <v>51989</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="N13" s="7">
-        <v>145243</v>
+        <v>91254</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,49 +4475,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>567</v>
+        <v>310</v>
       </c>
       <c r="D14" s="7">
-        <v>601212</v>
+        <v>334716</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>545</v>
+        <v>319</v>
       </c>
       <c r="I14" s="7">
-        <v>589842</v>
+        <v>335985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>1112</v>
+        <v>629</v>
       </c>
       <c r="N14" s="7">
-        <v>1191053</v>
+        <v>670702</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,10 +4526,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>624</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>666992</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4484,10 +4541,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>621</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>669305</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4499,10 +4556,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1245</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1336296</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4528,13 +4585,13 @@
         <v>29481</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4543,13 +4600,13 @@
         <v>41372</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -4558,13 +4615,13 @@
         <v>70853</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4636,13 @@
         <v>183137</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>173</v>
@@ -4594,13 +4651,13 @@
         <v>178219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>342</v>
@@ -4609,13 +4666,13 @@
         <v>361356</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4740,13 @@
         <v>36040</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -4698,13 +4755,13 @@
         <v>37535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -4713,13 +4770,13 @@
         <v>73576</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4791,13 @@
         <v>237941</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>232</v>
@@ -4749,13 +4806,13 @@
         <v>241605</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>458</v>
@@ -4764,13 +4821,13 @@
         <v>479545</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4895,13 @@
         <v>69663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -4853,13 +4910,13 @@
         <v>75449</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>128</v>
@@ -4871,10 +4928,10 @@
         <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4946,13 @@
         <v>592313</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="H23" s="7">
         <v>570</v>
@@ -4904,13 +4961,13 @@
         <v>617324</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M23" s="7">
         <v>1124</v>
@@ -4922,10 +4979,10 @@
         <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +5050,13 @@
         <v>54816</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -5008,13 +5065,13 @@
         <v>82260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -5023,13 +5080,13 @@
         <v>137076</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5101,13 @@
         <v>722156</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>679</v>
@@ -5059,13 +5116,13 @@
         <v>739260</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>1345</v>
@@ -5074,13 +5131,13 @@
         <v>1461416</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5205,13 @@
         <v>351988</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>400</v>
@@ -5163,13 +5220,13 @@
         <v>435567</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>716</v>
@@ -5178,10 +5235,10 @@
         <v>787555</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>16</v>
@@ -5196,16 +5253,16 @@
         <v>2887</v>
       </c>
       <c r="D29" s="7">
-        <v>3069194</v>
+        <v>3069193</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="H29" s="7">
         <v>2887</v>
@@ -5214,13 +5271,13 @@
         <v>3110513</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="M29" s="7">
         <v>5774</v>
@@ -5229,13 +5286,13 @@
         <v>6179706</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,7 +5304,7 @@
         <v>3203</v>
       </c>
       <c r="D30" s="7">
-        <v>3421182</v>
+        <v>3421181</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5315,7 +5372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40374237-2EA4-42A1-B3FE-31A95E1581AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAB31A2-75B1-4E4F-B509-7557CDCDA097}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5332,7 +5389,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5439,13 +5496,13 @@
         <v>20354</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5454,13 +5511,13 @@
         <v>27535</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5472,10 +5529,10 @@
         <v>19</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5547,13 @@
         <v>273407</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>251</v>
@@ -5505,13 +5562,13 @@
         <v>261168</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>497</v>
@@ -5523,10 +5580,10 @@
         <v>28</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5651,13 @@
         <v>51571</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -5609,13 +5666,13 @@
         <v>67753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>108</v>
@@ -5624,13 +5681,13 @@
         <v>119325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5702,13 @@
         <v>451004</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -5660,13 +5717,13 @@
         <v>455331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="M8" s="7">
         <v>851</v>
@@ -5675,13 +5732,13 @@
         <v>906334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5806,13 @@
         <v>38415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -5764,13 +5821,13 @@
         <v>44872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -5779,13 +5836,13 @@
         <v>83288</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5857,13 @@
         <v>280150</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>293</v>
@@ -5815,13 +5872,13 @@
         <v>291437</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>586</v>
@@ -5830,13 +5887,13 @@
         <v>571586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5961,13 @@
         <v>39058</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -5919,13 +5976,13 @@
         <v>50485</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -5934,13 +5991,13 @@
         <v>89543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +6012,13 @@
         <v>330906</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>314</v>
@@ -5970,13 +6027,13 @@
         <v>336798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>627</v>
@@ -5985,13 +6042,13 @@
         <v>667704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6116,13 @@
         <v>25359</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -6074,13 +6131,13 @@
         <v>29565</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -6089,13 +6146,13 @@
         <v>54924</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6167,13 @@
         <v>185862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -6125,13 +6182,13 @@
         <v>189022</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>380</v>
@@ -6140,13 +6197,13 @@
         <v>374884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6271,13 @@
         <v>22968</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -6229,13 +6286,13 @@
         <v>25158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -6244,13 +6301,13 @@
         <v>48126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6322,13 @@
         <v>240155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -6280,13 +6337,13 @@
         <v>247957</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>475</v>
@@ -6295,13 +6352,13 @@
         <v>488112</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6426,13 @@
         <v>52305</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -6384,13 +6441,13 @@
         <v>53729</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>94</v>
@@ -6399,13 +6456,13 @@
         <v>106034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,10 +6477,10 @@
         <v>604253</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>27</v>
@@ -6435,13 +6492,13 @@
         <v>637565</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="M23" s="7">
         <v>1132</v>
@@ -6450,13 +6507,13 @@
         <v>1241818</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6581,13 @@
         <v>68532</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -6539,13 +6596,13 @@
         <v>90853</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -6554,13 +6611,13 @@
         <v>159385</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6632,13 @@
         <v>710051</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>681</v>
@@ -6590,13 +6647,13 @@
         <v>735314</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="M26" s="7">
         <v>1365</v>
@@ -6605,13 +6662,13 @@
         <v>1445365</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6736,13 @@
         <v>318563</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="H28" s="7">
         <v>339</v>
@@ -6694,13 +6751,13 @@
         <v>389951</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>94</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="M28" s="7">
         <v>656</v>
@@ -6709,13 +6766,13 @@
         <v>708514</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6787,13 @@
         <v>3075787</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="H29" s="7">
         <v>2999</v>
@@ -6745,10 +6802,10 @@
         <v>3154591</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>102</v>
@@ -6760,13 +6817,13 @@
         <v>6230378</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07362931-102A-4CD7-8006-93A2B120E52E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78276C99-4C0F-410C-B0D5-0B57DA703E4C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6863,7 +6920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6967,46 +7024,46 @@
         <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>34812</v>
+        <v>38263</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="H4" s="7">
         <v>81</v>
       </c>
       <c r="I4" s="7">
-        <v>37270</v>
+        <v>38182</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>469</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>131</v>
       </c>
       <c r="N4" s="7">
-        <v>72082</v>
+        <v>76445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>373</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,46 +7075,46 @@
         <v>281</v>
       </c>
       <c r="D5" s="7">
-        <v>225486</v>
+        <v>273180</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
       <c r="H5" s="7">
         <v>457</v>
       </c>
       <c r="I5" s="7">
-        <v>234133</v>
+        <v>251453</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>475</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M5" s="7">
         <v>738</v>
       </c>
       <c r="N5" s="7">
-        <v>459618</v>
+        <v>524632</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>382</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,7 +7126,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7084,7 +7141,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7099,7 +7156,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7122,46 +7179,46 @@
         <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>51518</v>
+        <v>48798</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>296</v>
+        <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
       </c>
       <c r="I7" s="7">
-        <v>67869</v>
+        <v>62190</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="M7" s="7">
         <v>149</v>
       </c>
       <c r="N7" s="7">
-        <v>119387</v>
+        <v>110988</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,46 +7230,46 @@
         <v>333</v>
       </c>
       <c r="D8" s="7">
-        <v>466709</v>
+        <v>468595</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>614</v>
       </c>
       <c r="I8" s="7">
-        <v>485347</v>
+        <v>451535</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="M8" s="7">
         <v>947</v>
       </c>
       <c r="N8" s="7">
-        <v>952056</v>
+        <v>920130</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>347</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,7 +7281,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7239,7 +7296,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7254,7 +7311,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071443</v>
+        <v>1031118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7277,46 +7334,46 @@
         <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>49845</v>
+        <v>47600</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
       </c>
       <c r="I10" s="7">
-        <v>59034</v>
+        <v>54659</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
       </c>
       <c r="N10" s="7">
-        <v>108879</v>
+        <v>102258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,46 +7385,46 @@
         <v>292</v>
       </c>
       <c r="D11" s="7">
-        <v>272395</v>
+        <v>268450</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="H11" s="7">
         <v>431</v>
       </c>
       <c r="I11" s="7">
-        <v>314250</v>
+        <v>294469</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="M11" s="7">
         <v>723</v>
       </c>
       <c r="N11" s="7">
-        <v>586645</v>
+        <v>562920</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,7 +7436,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7394,7 +7451,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7409,7 +7466,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7432,46 +7489,46 @@
         <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>39675</v>
+        <v>37287</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
       </c>
       <c r="I13" s="7">
-        <v>55157</v>
+        <v>51291</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
       </c>
       <c r="N13" s="7">
-        <v>94832</v>
+        <v>88578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,46 +7540,46 @@
         <v>243</v>
       </c>
       <c r="D14" s="7">
-        <v>282565</v>
+        <v>275270</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>518</v>
+        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>487</v>
       </c>
       <c r="I14" s="7">
-        <v>373399</v>
+        <v>424427</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="M14" s="7">
         <v>730</v>
       </c>
       <c r="N14" s="7">
-        <v>655964</v>
+        <v>699696</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,7 +7591,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7549,7 +7606,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7564,7 +7621,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7587,46 +7644,46 @@
         <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>32120</v>
+        <v>29229</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>493</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="H16" s="7">
         <v>127</v>
       </c>
       <c r="I16" s="7">
-        <v>50548</v>
+        <v>45961</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="M16" s="7">
         <v>182</v>
       </c>
       <c r="N16" s="7">
-        <v>82668</v>
+        <v>75190</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,46 +7695,46 @@
         <v>224</v>
       </c>
       <c r="D17" s="7">
-        <v>164628</v>
+        <v>149513</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>500</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
       </c>
       <c r="I17" s="7">
-        <v>181355</v>
+        <v>162695</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="M17" s="7">
         <v>589</v>
       </c>
       <c r="N17" s="7">
-        <v>345983</v>
+        <v>312208</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,7 +7746,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7704,7 +7761,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7719,7 +7776,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7742,46 +7799,46 @@
         <v>99</v>
       </c>
       <c r="D19" s="7">
-        <v>59122</v>
+        <v>56489</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
       </c>
       <c r="I19" s="7">
-        <v>46504</v>
+        <v>43440</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>467</v>
+        <v>560</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
       </c>
       <c r="N19" s="7">
-        <v>105626</v>
+        <v>99930</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,46 +7850,46 @@
         <v>272</v>
       </c>
       <c r="D20" s="7">
-        <v>218101</v>
+        <v>213147</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
       </c>
       <c r="I20" s="7">
-        <v>229118</v>
+        <v>213616</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>474</v>
+        <v>570</v>
       </c>
       <c r="M20" s="7">
         <v>623</v>
       </c>
       <c r="N20" s="7">
-        <v>447219</v>
+        <v>426762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,7 +7901,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7859,7 +7916,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7874,7 +7931,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7897,46 +7954,46 @@
         <v>81</v>
       </c>
       <c r="D22" s="7">
-        <v>69472</v>
+        <v>66470</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>558</v>
+        <v>455</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>559</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
       </c>
       <c r="I22" s="7">
-        <v>210999</v>
+        <v>296202</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="M22" s="7">
         <v>239</v>
       </c>
       <c r="N22" s="7">
-        <v>280471</v>
+        <v>362672</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,46 +8005,46 @@
         <v>518</v>
       </c>
       <c r="D23" s="7">
-        <v>558282</v>
+        <v>557809</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>567</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>568</v>
+        <v>464</v>
       </c>
       <c r="H23" s="7">
         <v>802</v>
       </c>
       <c r="I23" s="7">
-        <v>593204</v>
+        <v>553063</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="M23" s="7">
         <v>1320</v>
       </c>
       <c r="N23" s="7">
-        <v>1151486</v>
+        <v>1110872</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,7 +8056,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8014,7 +8071,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8029,7 +8086,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8052,46 +8109,46 @@
         <v>102</v>
       </c>
       <c r="D25" s="7">
-        <v>84042</v>
+        <v>71801</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="H25" s="7">
         <v>151</v>
       </c>
       <c r="I25" s="7">
-        <v>103296</v>
+        <v>86484</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>395</v>
+        <v>592</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="M25" s="7">
         <v>253</v>
       </c>
       <c r="N25" s="7">
-        <v>187338</v>
+        <v>158285</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,46 +8160,46 @@
         <v>660</v>
       </c>
       <c r="D26" s="7">
-        <v>775386</v>
+        <v>856919</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="H26" s="7">
         <v>909</v>
       </c>
       <c r="I26" s="7">
-        <v>761735</v>
+        <v>628367</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>403</v>
+        <v>602</v>
       </c>
       <c r="M26" s="7">
         <v>1569</v>
       </c>
       <c r="N26" s="7">
-        <v>1537121</v>
+        <v>1485287</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,7 +8211,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8169,7 +8226,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8184,7 +8241,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8207,46 +8264,46 @@
         <v>552</v>
       </c>
       <c r="D28" s="7">
-        <v>420607</v>
+        <v>395938</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>207</v>
+        <v>607</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="H28" s="7">
         <v>944</v>
       </c>
       <c r="I28" s="7">
-        <v>630677</v>
+        <v>678408</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>594</v>
+        <v>325</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="M28" s="7">
         <v>1496</v>
       </c>
       <c r="N28" s="7">
-        <v>1051284</v>
+        <v>1074346</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>597</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,46 +8315,46 @@
         <v>2823</v>
       </c>
       <c r="D29" s="7">
-        <v>2963551</v>
+        <v>3062882</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>216</v>
+        <v>615</v>
       </c>
       <c r="H29" s="7">
         <v>4416</v>
       </c>
       <c r="I29" s="7">
-        <v>3172541</v>
+        <v>2979625</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>603</v>
+        <v>332</v>
       </c>
       <c r="M29" s="7">
         <v>7239</v>
       </c>
       <c r="N29" s="7">
-        <v>6136091</v>
+        <v>6042507</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>606</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,7 +8366,7 @@
         <v>3375</v>
       </c>
       <c r="D30" s="7">
-        <v>3384158</v>
+        <v>3458820</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8324,7 +8381,7 @@
         <v>5360</v>
       </c>
       <c r="I30" s="7">
-        <v>3803218</v>
+        <v>3658033</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8339,7 +8396,7 @@
         <v>8735</v>
       </c>
       <c r="N30" s="7">
-        <v>7187375</v>
+        <v>7116853</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
